--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -451,799 +451,1079 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0609</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>001186</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>富国文体健康股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>80.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001579</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰大农业股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519195</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519195</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家品质生活灵活配置混合</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008061</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合A</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72.04</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008062</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>惠升惠新灵活配置混合C</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.04</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009128</t>
+          <t>519195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明亚价值长青混合A</t>
+          <t>万家品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>84.10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001307</t>
+          <t>009958</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧永裕混合C</t>
+          <t>长安鑫悦消费驱动混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.10</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001888</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166011</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004233</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009958</t>
+          <t>009959</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合A</t>
+          <t>长安鑫悦消费驱动混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>77.39</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009959</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合C</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>77.39</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>001798</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>69.70</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010739</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合C</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>69.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>009128</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>明亚价值长青混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001798</t>
+          <t>008061</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合A</t>
+          <t>惠升惠新灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001799</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合C</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002331</t>
+          <t>001307</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰康安泰回报混合</t>
+          <t>中欧永裕混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>008062</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>惠升惠新灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>72.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>009129</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>明亚价值长青混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>001799</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2116,15 +2696,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>36.71</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>010739</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>大成优选升级一年持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3614,4 +3615,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4317,4 +4318,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4326,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4337,17 +4338,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4357,14 +4378,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.76</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4373,14 +4416,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.48</v>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4389,14 +4454,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.07</v>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4405,13 +4492,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5067,7 +5068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5078,17 +5079,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5098,14 +5119,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.59</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5114,14 +5157,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.76</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5130,14 +5195,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.48</v>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5146,14 +5233,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.07</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5162,13 +5271,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5694,7 +5695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5705,17 +5706,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5725,14 +5746,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.39</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5741,14 +5784,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.59</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5757,14 +5822,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.76</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5773,14 +5860,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.48</v>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5789,14 +5898,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.07</v>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5805,13 +5936,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>3.31</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>6.39</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>9.59</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>6.76</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>7.48</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>11.07</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.6</v>
       </c>
     </row>
@@ -600,6 +617,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +3064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2705,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3407,7 +4506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4261,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5495,7 +6594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/002299-圣农发展.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>11.51</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>3.31</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>6.39</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.59</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>6.76</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>7.48</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>11.07</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.6</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,36 +690,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001938</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>128.93</t>
+          <t>67.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5399</t>
+          <t>6.4257</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166002</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>111.30</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.59</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1926</t>
+          <t>5.8389</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159865</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证畜牧养殖ETF</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.11</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.52</t>
+          <t>71.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7983</t>
+          <t>1.2020</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37.11</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8906</t>
+          <t>1.0609</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012647</t>
+          <t>001186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧洞见一年持有混合</t>
+          <t>富国文体健康股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33.23</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.48</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7277</t>
+          <t>0.8832</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001736</t>
+          <t>519195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰优加生活股票</t>
+          <t>万家品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.78</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6894</t>
+          <t>0.5695</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +918,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004241</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票C</t>
+          <t>国泰大农业股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.58</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5827</t>
+          <t>0.4236</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +956,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64.34</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4645</t>
+          <t>0.4131</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159867</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证畜牧养殖ETF</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.38</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2663</t>
+          <t>0.3783</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1032,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商中证畜牧养殖ETF</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2125</t>
+          <t>0.3783</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004237</t>
+          <t>001306</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -C</t>
+          <t>中欧永裕混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.59</t>
+          <t>80.96</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1964</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +1108,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1732</t>
+          <t>0.2115</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1139,26 +1156,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1184,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.70</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1280</t>
+          <t>0.0875</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1222,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014506</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时成长臻选混合A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1111</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +1260,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1018</t>
+          <t>0.0316</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1298,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1336,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>516760</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安中证畜牧养殖ETF</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>98.09</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008246</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合C</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>78.70</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0485</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1412,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001885</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧新蓝筹混合 -E</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>71.59</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1450,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012430</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>农银汇理瑞康6个月持有期混合</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24.44</t>
+          <t>89.74</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1488,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>015741</t>
+          <t>008061</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东财品质生活优选混合A</t>
+          <t>惠升惠新灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>71.71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1526,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>001307</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>方正富邦消费红利指数增强（LOF）</t>
+          <t>中欧永裕混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>80.96</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +1564,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>013472</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数C</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +1602,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>013471</t>
+          <t>008062</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数A</t>
+          <t>惠升惠新灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>71.71</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1623,27 +1640,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>014507</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时成长臻选混合C</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1652,7 +1669,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1661,36 +1678,2676 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>015742</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东财品质生活优选混合C</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6987</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1699,6 +4356,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7983</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2438,7 +6177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3064,7 +6803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3804,7 +7543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4506,7 +8245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5360,7 +9099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6592,1086 +10331,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.4257</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.8389</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2020</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0609</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8832</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519195</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5695</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001579</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰大农业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4236</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4131</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3783</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3783</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2901</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2115</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1861</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0665</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>